--- a/material/material.xlsx
+++ b/material/material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uzun.a.i\PycharmProjects\PythonProject\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56857F4-6093-40EE-8845-F26A703FC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5035A9AF-4F7B-4384-BB59-21321285A10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC357A2C-C6F3-4E3A-9B7F-477509B8F73A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC357A2C-C6F3-4E3A-9B7F-477509B8F73A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Кол-во</t>
   </si>
@@ -89,9 +89,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -113,161 +110,116 @@
     <t>м.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Контактор Ульяновск</t>
-  </si>
-  <si>
-    <t>DKC</t>
+    <t>Наконечник силовой медный луженый ТМЛ-Р 185-12 PROxima</t>
+  </si>
+  <si>
+    <t>Сверло по металлу 22,5x248/150мм DIN345 HSSE-Co5 KM2 135°</t>
+  </si>
+  <si>
+    <t>Профиль двойной С-образный 41х42 L100  s2 СТРАТ оцинкованный</t>
+  </si>
+  <si>
+    <t>Светильник светодиодный СПВО-30 Офис 10, 5000К, IP40, Сталь, стекло призма, 30Вт</t>
+  </si>
+  <si>
+    <t>Контактор электромагнитный LC1E2510M5, 3P, 25А, 1НО, 220В/50Гц,   (ЭТ)</t>
+  </si>
+  <si>
+    <t>Провод ПВС 3х16 черный ТРТС</t>
+  </si>
+  <si>
+    <t>БЭЛЛА Блок комбинированны скрытой установки (двухклавишный выключатель+розетка) БКВР-038, белый</t>
+  </si>
+  <si>
+    <t>Зажимная втулка KLCC012 (PHF FX20-12x18) ISKRA</t>
+  </si>
+  <si>
+    <t>Угол лестничный верт. внеш. 45 гр. 100х300х1,2 мм</t>
+  </si>
+  <si>
+    <t>Кабель малогабаритный КМПЭВ 30х0.75</t>
+  </si>
+  <si>
+    <t>Выключатель автоматический четырехполюсный 50А C 6кА AC OptiDin BM63-4C50-УХЛ3-РЕГ</t>
+  </si>
+  <si>
+    <t>Светильник светодиодный УНИС-120 Г1Д, 3000К, IP67,крепление скоба (прозрачное стекло), 120Вт</t>
+  </si>
+  <si>
+    <t>Розетка Navigator 61 370 NCA-BLR1-01-16A-E-IP44-BL настенная с заземлением черная каучук</t>
+  </si>
+  <si>
+    <t>Выключатель автоматический ВА57-35-340010-200А-630-690AC-УХЛ3- (Втычной, без панели)</t>
+  </si>
+  <si>
+    <t>tml-r-185-12</t>
+  </si>
+  <si>
+    <t>204225EHT</t>
+  </si>
+  <si>
+    <t>Н3322260122</t>
+  </si>
+  <si>
+    <t>Э31СТ-10п(5К)0099</t>
+  </si>
+  <si>
+    <t>ET009431</t>
+  </si>
+  <si>
+    <t>KLCC012-ISKRA</t>
+  </si>
+  <si>
+    <t>LO4487</t>
+  </si>
+  <si>
+    <t>Э27120Г1Д(3К)0399</t>
+  </si>
+  <si>
+    <t>EKF</t>
+  </si>
+  <si>
+    <t>Ruko</t>
   </si>
   <si>
     <t>СОЭМИ</t>
   </si>
   <si>
+    <t>ФОКУС</t>
+  </si>
+  <si>
+    <t>Электротехник</t>
+  </si>
+  <si>
+    <t>ЦВЕТЛИТ КЗ</t>
+  </si>
+  <si>
+    <t>Кунцево</t>
+  </si>
+  <si>
+    <t>ISKRA</t>
+  </si>
+  <si>
     <t>КМ-профиль</t>
   </si>
   <si>
-    <t>FINDER</t>
-  </si>
-  <si>
-    <t>Алюр</t>
-  </si>
-  <si>
-    <t>NSK</t>
-  </si>
-  <si>
-    <t>INNOLUX</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Факел-спецодежда</t>
-  </si>
-  <si>
-    <t>SUPU</t>
-  </si>
-  <si>
-    <t>ДВИН</t>
-  </si>
-  <si>
-    <t>NEOX</t>
-  </si>
-  <si>
-    <t>Светильник-коннектор квадратный ДБО-КВ-LINE 10Вт 4000К белый NEOX</t>
-  </si>
-  <si>
-    <t>4690612037813</t>
-  </si>
-  <si>
-    <t>Костюм Фаворит-2 (тк.Смесовая,210) п/к, т.серый/серый, р. 60-62/170-176</t>
-  </si>
-  <si>
-    <t>87471182</t>
-  </si>
-  <si>
-    <t>87471182009</t>
-  </si>
-  <si>
-    <t>Подшипник 22226EJW33C3 (NSK)</t>
-  </si>
-  <si>
-    <t>22226EJW33C3 NSK</t>
-  </si>
-  <si>
-    <t>22226EJW33C3      RP      5</t>
-  </si>
-  <si>
-    <t>Гнездовой разъём серии MCS, шаг 7.5мм, 3 конт.</t>
-  </si>
-  <si>
-    <t>475103/100</t>
-  </si>
-  <si>
-    <t>Кабель силовой ВВГнг(А)-FRLS 3х1.5-0.66 однопроволочный барабан ТУ завода</t>
-  </si>
-  <si>
-    <t>00-00004278</t>
-  </si>
-  <si>
-    <t>Лоток лестничный 80х600х1,2 L4500 мм HD N</t>
-  </si>
-  <si>
-    <t>LO36640</t>
-  </si>
-  <si>
-    <t>LL80-600-1.2-4500 HD N</t>
-  </si>
-  <si>
-    <t>Лоток неперфорированный 500х65 L3000 1,5 мм</t>
-  </si>
-  <si>
-    <t>Н0122122447</t>
-  </si>
-  <si>
-    <t>Консоль 40х40 основание 100 облегченная оцинкованное</t>
-  </si>
-  <si>
-    <t>Н3114220122</t>
-  </si>
-  <si>
-    <t>Светильник светодиодный ДВО-13-С-40-3K-IP54-CLIP-IN-A3</t>
-  </si>
-  <si>
-    <t>92497</t>
-  </si>
-  <si>
-    <t>26692</t>
-  </si>
-  <si>
-    <t>Вилка кабельная CP IP44 32A 3P 25В</t>
-  </si>
-  <si>
-    <t>CP034-032-02</t>
-  </si>
-  <si>
-    <t>Котел газовый Ferroli PEGASUS D 32</t>
-  </si>
-  <si>
-    <t>Ferroli</t>
-  </si>
-  <si>
-    <t>Выключатель автоматический ВА57-39-832310-630А-220DC-2000А-РМН127AC-2З2Р</t>
-  </si>
-  <si>
-    <t>L630-6281</t>
-  </si>
-  <si>
-    <t>Комплект соединений для полотенцесушителя прямой гайка/штуцер 3/4'х1/2' золотой хром</t>
-  </si>
-  <si>
-    <t>4627201604668</t>
-  </si>
-  <si>
-    <t>Реле электромеханическое универсальное миниатюрное, монтаж на печатную плату или в розетку, выводы с шагом 5мм, 2NO 8A, контакты AgNi, катушка 28В DC, влагозащита RTIII</t>
-  </si>
-  <si>
-    <t>40.52.9.028.0301</t>
-  </si>
-  <si>
-    <t>405290280301</t>
-  </si>
-  <si>
-    <t>Подшипник NJ 328 EM</t>
-  </si>
-  <si>
-    <t>NJ328EMART</t>
-  </si>
-  <si>
-    <t>УТ-00485811</t>
+    <t>СегментЭнерго</t>
+  </si>
+  <si>
+    <t>КЭАЗ Optima</t>
+  </si>
+  <si>
+    <t>Navigator Group</t>
+  </si>
+  <si>
+    <t>КЭАЗ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +253,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -333,11 +292,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,9 +332,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,15 +341,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{3C8A3870-5378-4031-8FF1-95C887368CFF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,16 +662,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C76BD-7E81-4AD6-B109-8A20A2823704}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="88.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="2" customWidth="1"/>
@@ -709,22 +682,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -734,20 +707,18 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -757,45 +728,41 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>33</v>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
         <v>4</v>
       </c>
     </row>
@@ -803,22 +770,20 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7">
         <v>15</v>
       </c>
     </row>
@@ -826,22 +791,20 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="8">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7">
         <v>2</v>
       </c>
     </row>
@@ -849,22 +812,18 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7">
         <v>7</v>
       </c>
     </row>
@@ -872,22 +831,20 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8">
+        <v>5827</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -895,22 +852,20 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7">
         <v>12</v>
       </c>
     </row>
@@ -918,22 +873,20 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="8">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7">
         <v>42</v>
       </c>
     </row>
@@ -941,22 +894,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="8">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7">
         <v>14</v>
       </c>
     </row>
@@ -964,43 +913,39 @@
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>62</v>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12">
+        <v>280452</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5">
         <v>55</v>
@@ -1010,20 +955,18 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14">
+        <v>61370</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="5">
         <v>69</v>
@@ -1033,47 +976,61 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15">
+        <v>279016</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="5">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="5">
-        <v>82</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
